--- a/biology/Botanique/Claviceps_paspali/Claviceps_paspali.xlsx
+++ b/biology/Botanique/Claviceps_paspali/Claviceps_paspali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claviceps paspali est une espèce de champignons ascomycètes de la famille des Clavicipitaceae à distribution pan-tropicale.
 Ce champignon, proche de l'ergot du seigle, parasite exclusivement les espèces de graminées du genre Paspalum. Le champignon colonise les ovaires de ces plantes et provoque le développement de sclérotes, appelées « ergots », qui remplacent les graines (ou caryopses). Ces sclérotes contiennent des mycotoxines dites « trémorgènes », qui contiennent un atome d'azote dans un noyau indol-diterpénoïde. Il s'agit entre autres de la paspaline et des paspalitrèmes A et B.
-Lorsqu'elles sont ingérées par des animaux de pâturage, notamment les bovins, mais aussi les ovins et les chevaux, ces substance provoquent le « tournis du paspalum » (Paspalum staggers), maladie nerveuse caractérisée par des symptômes de tremblements, hyperexcitabilité, incoordination, ataxie, dépression et paralysie, qui s'aggravent lorsque les animaux sont soumis à certains exercices. Ces symptômes sont parfois accompagnés de diarrhée et de polyurie[3].
+Lorsqu'elles sont ingérées par des animaux de pâturage, notamment les bovins, mais aussi les ovins et les chevaux, ces substance provoquent le « tournis du paspalum » (Paspalum staggers), maladie nerveuse caractérisée par des symptômes de tremblements, hyperexcitabilité, incoordination, ataxie, dépression et paralysie, qui s'aggravent lorsque les animaux sont soumis à certains exercices. Ces symptômes sont parfois accompagnés de diarrhée et de polyurie.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 juin 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 juin 2018) :
 non-classé Claviceps paspali RRC 1481</t>
         </is>
       </c>
